--- a/data/trans_orig/CAGE-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CAGE-Habitat-trans_orig.xlsx
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9599</v>
+        <v>10588</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003804928346514106</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01383127367315087</v>
+        <v>0.01525558899818514</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9717</v>
+        <v>10301</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001910255204172475</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.007029526332525979</v>
+        <v>0.007451758949659763</v>
       </c>
     </row>
     <row r="6">
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6516</v>
+        <v>6268</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002831847089349955</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009389485288405282</v>
+        <v>0.009031531390872694</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6909</v>
+        <v>7054</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001421722079157522</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004998209249344033</v>
+        <v>0.005102595558189289</v>
       </c>
     </row>
     <row r="7">
@@ -917,19 +917,19 @@
         <v>689406</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>682542</v>
+        <v>681339</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>693091</v>
+        <v>692269</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9933632245641359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9834722732716805</v>
+        <v>0.981740170170698</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9986734837472503</v>
+        <v>0.9974888334418299</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>696</v>
@@ -951,19 +951,19 @@
         <v>1377757</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1369778</v>
+        <v>1369637</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1380634</v>
+        <v>1381301</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.99666802271667</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9908957802985342</v>
+        <v>0.990793717010601</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9987492619016353</v>
+        <v>0.9992319715105628</v>
       </c>
     </row>
     <row r="8">
@@ -1058,16 +1058,16 @@
         <v>892</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8050</v>
+        <v>7996</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.00305726545085288</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0009272601352064909</v>
+        <v>0.0009274208387021599</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.008369782202085096</v>
+        <v>0.008313786246658877</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>2940</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8544</v>
+        <v>8236</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001523411301427003</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0004629363020991127</v>
+        <v>0.0004657127338480556</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004426438937559334</v>
+        <v>0.004266845470870619</v>
       </c>
     </row>
     <row r="10">
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5815</v>
+        <v>6121</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001007978326144372</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.006045455838296084</v>
+        <v>0.006363758960501631</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>4875</v>
+        <v>4866</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0005022676631541548</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.002525520076600009</v>
+        <v>0.002521145947778537</v>
       </c>
     </row>
     <row r="11">
@@ -1181,19 +1181,19 @@
         <v>3119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8502</v>
+        <v>9300</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.003242980477920909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.00099932003318221</v>
+        <v>0.001001138697929819</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.008839230071528092</v>
+        <v>0.009669350996008132</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5169</v>
+        <v>5177</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001063927212200765</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.00533786424749617</v>
+        <v>0.005345577447369731</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1223,19 +1223,19 @@
         <v>4149</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10435</v>
+        <v>10062</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.002149732296768552</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0005575442236279617</v>
+        <v>0.0005603974123378347</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.005406327564624998</v>
+        <v>0.005212912027179623</v>
       </c>
     </row>
     <row r="12">
@@ -1252,19 +1252,19 @@
         <v>954771</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>947540</v>
+        <v>948056</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>958845</v>
+        <v>958835</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9926917757450818</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9851731891765055</v>
+        <v>0.9857104583293186</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9969280875137492</v>
+        <v>0.9969175249218745</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>907</v>
@@ -1273,7 +1273,7 @@
         <v>967363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>963224</v>
+        <v>963216</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>968393</v>
@@ -1282,7 +1282,7 @@
         <v>0.9989360727877993</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9946621357525038</v>
+        <v>0.9946544225526303</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1294,19 +1294,19 @@
         <v>1922134</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1915240</v>
+        <v>1914977</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1927044</v>
+        <v>1926235</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9958245887386503</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.992253145630226</v>
+        <v>0.9921166878090134</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9983686160194457</v>
+        <v>0.9979494410069227</v>
       </c>
     </row>
     <row r="13">
@@ -1398,19 +1398,19 @@
         <v>2666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7897</v>
+        <v>7326</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003929810346458452</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001160990926548108</v>
+        <v>0.001143113478436715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0116392096167276</v>
+        <v>0.01079724909156041</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>2666</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6415</v>
+        <v>7054</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.001957214702437475</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0005695597233812797</v>
+        <v>0.0005691350271499959</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004708737042705327</v>
+        <v>0.005177520446024491</v>
       </c>
     </row>
     <row r="15">
@@ -1508,19 +1508,19 @@
         <v>3982</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>988</v>
+        <v>998</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9192</v>
+        <v>9823</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005868239341784087</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001456240968628351</v>
+        <v>0.001471334782477058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01354744434826565</v>
+        <v>0.01447695355332821</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1542,19 +1542,19 @@
         <v>3982</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9025</v>
+        <v>10022</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002922635777452335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0007213101000728895</v>
+        <v>0.0007263098920119341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006624485918850421</v>
+        <v>0.007356573211163931</v>
       </c>
     </row>
     <row r="17">
@@ -1571,19 +1571,19 @@
         <v>671861</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>665374</v>
+        <v>665451</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>675653</v>
+        <v>675651</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9902019503117575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9806415106872977</v>
+        <v>0.9807543872302648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9957902029531304</v>
+        <v>0.9957881523912697</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>696</v>
@@ -1605,19 +1605,19 @@
         <v>1355702</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1349688</v>
+        <v>1348979</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1359601</v>
+        <v>1359615</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9951201495201102</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9907058281653698</v>
+        <v>0.9901856585398926</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979820967617797</v>
+        <v>0.9979921598359208</v>
       </c>
     </row>
     <row r="18">
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4820</v>
+        <v>5098</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.000979827805092719</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.004641097264273649</v>
+        <v>0.004908840588303153</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4942</v>
+        <v>5429</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0005137537361250379</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002494675348240554</v>
+        <v>0.002740698616508688</v>
       </c>
     </row>
     <row r="20">
@@ -1772,19 +1772,19 @@
         <v>3227</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9232</v>
+        <v>10014</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003425095095866532</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0009290956505760888</v>
+        <v>0.0009297384764414547</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009798564966549907</v>
+        <v>0.01062772986235897</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6996</v>
+        <v>7424</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001931460468481568</v>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.006736150931880245</v>
+        <v>0.007147866676854601</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1814,19 +1814,19 @@
         <v>5233</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1774</v>
+        <v>1760</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11892</v>
+        <v>11994</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002641936701874906</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0008955621882070017</v>
+        <v>0.0008883437499503617</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006003712434750391</v>
+        <v>0.006055199537240234</v>
       </c>
     </row>
     <row r="21">
@@ -1843,19 +1843,19 @@
         <v>4128</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>886</v>
+        <v>1520</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10682</v>
+        <v>10646</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004381556046887986</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0009405178025291769</v>
+        <v>0.001613468614606953</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01133743357151391</v>
+        <v>0.01129912758467555</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1864,19 +1864,19 @@
         <v>5235</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1457</v>
+        <v>1657</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13076</v>
+        <v>13196</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.005040083059066674</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.001403212974556149</v>
+        <v>0.001595604876579389</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01258956118922653</v>
+        <v>0.01270496879280188</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -1885,19 +1885,19 @@
         <v>9363</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4063</v>
+        <v>3910</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18079</v>
+        <v>17157</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004726841933946523</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002051406522826512</v>
+        <v>0.001974148213055187</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.009127194269351135</v>
+        <v>0.008661473152453265</v>
       </c>
     </row>
     <row r="22">
@@ -1914,19 +1914,19 @@
         <v>934866</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>928000</v>
+        <v>926388</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>938968</v>
+        <v>939305</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9921933488572455</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9849055535186179</v>
+        <v>0.9831948239488636</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9965464073029826</v>
+        <v>0.9969040321685922</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>990</v>
@@ -1935,19 +1935,19 @@
         <v>1030354</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1021136</v>
+        <v>1021229</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1035120</v>
+        <v>1035401</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.992048628667359</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9831740536124196</v>
+        <v>0.9832636247369505</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9966373431108414</v>
+        <v>0.9969087345710744</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1977</v>
@@ -1956,19 +1956,19 @@
         <v>1965220</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1954141</v>
+        <v>1955792</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1971679</v>
+        <v>1971828</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9921174676280535</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9865244817187341</v>
+        <v>0.9873579441817415</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9953782553419449</v>
+        <v>0.9954534711675566</v>
       </c>
     </row>
     <row r="23">
@@ -2060,19 +2060,19 @@
         <v>5607</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2516</v>
+        <v>2520</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12258</v>
+        <v>11785</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001711221020857152</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0007677878445496275</v>
+        <v>0.0007691671949316924</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003741180808253826</v>
+        <v>0.003596642499711688</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5110</v>
+        <v>5558</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0003011546389197376</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.001512321003551215</v>
+        <v>0.001644665354323607</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -2102,19 +2102,19 @@
         <v>6625</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2893</v>
+        <v>2882</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13469</v>
+        <v>13411</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.000995313838218762</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0004346647997306016</v>
+        <v>0.0004330596159683517</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002023702441272536</v>
+        <v>0.002014935057598716</v>
       </c>
     </row>
     <row r="25">
@@ -2131,19 +2131,19 @@
         <v>6837</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2663</v>
+        <v>2353</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14164</v>
+        <v>14552</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002086754165561299</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0008128479374787167</v>
+        <v>0.0007182079906879675</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.004322868209004088</v>
+        <v>0.004441316367597334</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7027</v>
+        <v>7003</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0005936433697329825</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.002079455417497298</v>
+        <v>0.002072526794552836</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2173,19 +2173,19 @@
         <v>8843</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4224</v>
+        <v>3840</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17253</v>
+        <v>17796</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001328684363386653</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0006346029744560339</v>
+        <v>0.0005770171391868826</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.002592202561469821</v>
+        <v>0.002673775610229689</v>
       </c>
     </row>
     <row r="26">
@@ -2202,19 +2202,19 @@
         <v>13194</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7554</v>
+        <v>7181</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>22219</v>
+        <v>22249</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00402695341232436</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002305470451890319</v>
+        <v>0.002191778010347999</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.006781217949503548</v>
+        <v>0.006790479631766741</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5</v>
@@ -2223,19 +2223,19 @@
         <v>6265</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14055</v>
+        <v>14254</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001853987833040277</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0006282232769482915</v>
+        <v>0.0006286506120124565</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.004159190462143992</v>
+        <v>0.004218233129632353</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -2244,19 +2244,19 @@
         <v>19459</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>12138</v>
+        <v>11845</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31176</v>
+        <v>30188</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.002923713390604226</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001823644257568388</v>
+        <v>0.001779630587786393</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.004684116185186301</v>
+        <v>0.00453562629275265</v>
       </c>
     </row>
     <row r="27">
@@ -2273,19 +2273,19 @@
         <v>3250904</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3239163</v>
+        <v>3238415</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3259495</v>
+        <v>3259344</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9921750714012572</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9885914861191086</v>
+        <v>0.98836337256531</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9947970049143814</v>
+        <v>0.9947507479870181</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3289</v>
@@ -2294,19 +2294,19 @@
         <v>3369908</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3361512</v>
+        <v>3361046</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3374960</v>
+        <v>3374833</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.997251214158307</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9947665481613661</v>
+        <v>0.9946286853748501</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9987461029428844</v>
+        <v>0.9987087130014859</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6478</v>
@@ -2315,19 +2315,19 @@
         <v>6620814</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6606820</v>
+        <v>6608279</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6630951</v>
+        <v>6630915</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9947522884077904</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9926497576401071</v>
+        <v>0.9928690643825095</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9962754106312522</v>
+        <v>0.9962699537670728</v>
       </c>
     </row>
     <row r="28">
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5689</v>
+        <v>3247</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001033188118070852</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008087520252784801</v>
+        <v>0.004615567735670974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4167</v>
+        <v>3647</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0005189617575305629</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.002975275257694512</v>
+        <v>0.002604389448304471</v>
       </c>
     </row>
     <row r="5">
@@ -2722,19 +2722,19 @@
         <v>4255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1668</v>
+        <v>1565</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9738</v>
+        <v>9104</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.006049000331607476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002370909335867148</v>
+        <v>0.002224421319084208</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0138434674874207</v>
+        <v>0.01294163983707946</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -2756,19 +2756,19 @@
         <v>4255</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1585</v>
+        <v>1576</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9408</v>
+        <v>8973</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.003038362316105051</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001132021439061488</v>
+        <v>0.001124954169171369</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.00671753649386147</v>
+        <v>0.006406884744688081</v>
       </c>
     </row>
     <row r="6">
@@ -2785,19 +2785,19 @@
         <v>3699</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8882</v>
+        <v>9913</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005258567150406836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001440036260949575</v>
+        <v>0.001446263424667618</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01262532875498713</v>
+        <v>0.01409091907477707</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4474</v>
+        <v>5789</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001451753995639224</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.00641875183936733</v>
+        <v>0.00830473308245756</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -2827,19 +2827,19 @@
         <v>4711</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1615</v>
+        <v>1662</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10288</v>
+        <v>10738</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003363884430392431</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001152878957394889</v>
+        <v>0.001186727779161876</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.007345959026567254</v>
+        <v>0.007666881987763118</v>
       </c>
     </row>
     <row r="7">
@@ -2856,19 +2856,19 @@
         <v>694788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>687486</v>
+        <v>687945</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>699089</v>
+        <v>699205</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9876592443999148</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9772797186773197</v>
+        <v>0.977932095865919</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.993774062950414</v>
+        <v>0.9939391055976966</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>649</v>
@@ -2877,7 +2877,7 @@
         <v>696038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>692576</v>
+        <v>691261</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>697050</v>
@@ -2886,7 +2886,7 @@
         <v>0.9985482460043608</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9935812481606341</v>
+        <v>0.991695266917542</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -2898,19 +2898,19 @@
         <v>1390826</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1383891</v>
+        <v>1383399</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1395483</v>
+        <v>1395550</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.993078791495972</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9881269781458816</v>
+        <v>0.9877762334207715</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9964042029884228</v>
+        <v>0.9964518891448428</v>
       </c>
     </row>
     <row r="8">
@@ -3002,19 +3002,19 @@
         <v>3015</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8136</v>
+        <v>7939</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002961795810964025</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0009111081680783781</v>
+        <v>0.000909897306655815</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.007992955986073922</v>
+        <v>0.007799423770153333</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -3039,16 +3039,16 @@
         <v>930</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7952</v>
+        <v>8277</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001470613997180614</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0004535758683673793</v>
+        <v>0.0004535883199651099</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003878738426383629</v>
+        <v>0.004037167273992145</v>
       </c>
     </row>
     <row r="10">
@@ -3065,19 +3065,19 @@
         <v>4455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1025</v>
+        <v>1126</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12821</v>
+        <v>13478</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00437612809508922</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001006700277242381</v>
+        <v>0.00110597136782536</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01259518726573471</v>
+        <v>0.0132401576422333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3099,19 +3099,19 @@
         <v>4455</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15770</v>
+        <v>14318</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002172869313363923</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0005020338906288676</v>
+        <v>0.0005033050130559462</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.007692244348916877</v>
+        <v>0.006983831268531042</v>
       </c>
     </row>
     <row r="11">
@@ -3128,19 +3128,19 @@
         <v>6477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16280</v>
+        <v>15386</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006363279998313592</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0020216948469507</v>
+        <v>0.002022699525723455</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0159926949111554</v>
+        <v>0.01511460048347145</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4934</v>
+        <v>5881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0009551307748948516</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.004780263140582251</v>
+        <v>0.005697985400697113</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -3170,19 +3170,19 @@
         <v>7463</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3021</v>
+        <v>3007</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18847</v>
+        <v>17304</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003640427282290604</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001473563930639954</v>
+        <v>0.001466686967839479</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009193100757089092</v>
+        <v>0.008440456658731641</v>
       </c>
     </row>
     <row r="12">
@@ -3199,19 +3199,19 @@
         <v>1004000</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>992730</v>
+        <v>992225</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1010955</v>
+        <v>1010621</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9862987960956332</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.975227966752648</v>
+        <v>0.974731029880946</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9931311546183066</v>
+        <v>0.9928031918334598</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>939</v>
@@ -3220,7 +3220,7 @@
         <v>1031198</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1027250</v>
+        <v>1026303</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>1032184</v>
@@ -3229,7 +3229,7 @@
         <v>0.9990448692251052</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9952197368594178</v>
+        <v>0.9943020145993031</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -3241,19 +3241,19 @@
         <v>2035198</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2022251</v>
+        <v>2022558</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2042611</v>
+        <v>2042386</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9927160894071648</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9864010661480545</v>
+        <v>0.9865506109925425</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9963317137591774</v>
+        <v>0.9962219742743788</v>
       </c>
     </row>
     <row r="13">
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6114</v>
+        <v>6895</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001597935984060692</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008070218308163018</v>
+        <v>0.009101443780987852</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7304</v>
+        <v>6117</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0007887905067782987</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.004758946816582139</v>
+        <v>0.003985434521569108</v>
       </c>
     </row>
     <row r="15">
@@ -3408,19 +3408,19 @@
         <v>6949</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2844</v>
+        <v>2895</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17412</v>
+        <v>16848</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.00917262030381745</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003753421395183558</v>
+        <v>0.003821615129418496</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02298254604072945</v>
+        <v>0.02223831206835062</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3442,19 +3442,19 @@
         <v>6949</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2785</v>
+        <v>2913</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17048</v>
+        <v>16833</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.004527888407360799</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.001814498274490419</v>
+        <v>0.001898104131049664</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01110790753521684</v>
+        <v>0.01096728834297738</v>
       </c>
     </row>
     <row r="16">
@@ -3471,19 +3471,19 @@
         <v>10102</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5057</v>
+        <v>4996</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17949</v>
+        <v>17736</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01333424964886721</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006675452075791772</v>
+        <v>0.006594916697290181</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02369178729325554</v>
+        <v>0.02341031120336058</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4991</v>
+        <v>5382</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.001281611842033345</v>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.006421552538446706</v>
+        <v>0.006924613355409113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -3513,19 +3513,19 @@
         <v>11098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6001</v>
+        <v>5912</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19879</v>
+        <v>19497</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007231165753140888</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00390992370417179</v>
+        <v>0.003851923522856531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01295224049257567</v>
+        <v>0.01270318177973552</v>
       </c>
     </row>
     <row r="17">
@@ -3542,19 +3542,19 @@
         <v>739361</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>728595</v>
+        <v>728142</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>746559</v>
+        <v>746904</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9758951940632546</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9616856890149432</v>
+        <v>0.9610870969511359</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9853962254639471</v>
+        <v>0.9858519265241322</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>704</v>
@@ -3563,7 +3563,7 @@
         <v>776178</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>772183</v>
+        <v>771792</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>777174</v>
@@ -3572,7 +3572,7 @@
         <v>0.9987183881579667</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9935784474615533</v>
+        <v>0.9930753866445909</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3584,19 +3584,19 @@
         <v>1515539</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1504272</v>
+        <v>1503508</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1523069</v>
+        <v>1523534</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.98745215533272</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9801111856581439</v>
+        <v>0.9796133890974204</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9923584666181736</v>
+        <v>0.992661814969538</v>
       </c>
     </row>
     <row r="18">
@@ -3688,19 +3688,19 @@
         <v>3930</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9879</v>
+        <v>9942</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00414628479344523</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0009765917578343892</v>
+        <v>0.0009643029686939252</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01042340969185082</v>
+        <v>0.01049052444768681</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3722,19 +3722,19 @@
         <v>3930</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>900</v>
+        <v>1747</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9913</v>
+        <v>10330</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.00196515202681152</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0004499955067985903</v>
+        <v>0.0008738779593177908</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004957184526621759</v>
+        <v>0.005165762812651459</v>
       </c>
     </row>
     <row r="20">
@@ -3751,19 +3751,19 @@
         <v>5525</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12925</v>
+        <v>14762</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.005829263176262396</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001937073396611849</v>
+        <v>0.001934804844006441</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01363783579683211</v>
+        <v>0.01557551968477166</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5631</v>
+        <v>5641</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0009521990918918868</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.005353284628793767</v>
+        <v>0.00536247707830795</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -3793,19 +3793,19 @@
         <v>6526</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2740</v>
+        <v>2745</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14019</v>
+        <v>14144</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003263707550124611</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001370137116831061</v>
+        <v>0.001372635588191756</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007010842874893493</v>
+        <v>0.007073237223515027</v>
       </c>
     </row>
     <row r="21">
@@ -3822,19 +3822,19 @@
         <v>15481</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8550</v>
+        <v>8482</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25689</v>
+        <v>26292</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01633437792646465</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009021844936091991</v>
+        <v>0.008949358935288759</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02710605308955125</v>
+        <v>0.02774200590222548</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4543</v>
+        <v>5485</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.001073011042086452</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.004318850278324429</v>
+        <v>0.005214570592284856</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -3864,19 +3864,19 @@
         <v>16609</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>9577</v>
+        <v>9587</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29303</v>
+        <v>28385</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.00830621077601741</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004789568521704734</v>
+        <v>0.004794464539130137</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.014654328956138</v>
+        <v>0.01419488999223681</v>
       </c>
     </row>
     <row r="22">
@@ -3893,19 +3893,19 @@
         <v>922804</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>910172</v>
+        <v>910481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>931656</v>
+        <v>931771</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9736900741038277</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9603614127588158</v>
+        <v>0.9606871442713886</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9830297781884534</v>
+        <v>0.9831511162507252</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1001</v>
@@ -3914,7 +3914,7 @@
         <v>1049771</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1044565</v>
+        <v>1045473</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>1051901</v>
@@ -3923,7 +3923,7 @@
         <v>0.9979747898660216</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9930261650833663</v>
+        <v>0.9938892917839997</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -3935,19 +3935,19 @@
         <v>1972575</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1959328</v>
+        <v>1958767</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1982445</v>
+        <v>1981817</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9864649296470465</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9798406008953343</v>
+        <v>0.9795599107210329</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9914011430038409</v>
+        <v>0.9910867153851893</v>
       </c>
     </row>
     <row r="23">
@@ -4039,19 +4039,19 @@
         <v>8882</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4274</v>
+        <v>3984</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16434</v>
+        <v>16094</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002591938026770481</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001247167022975168</v>
+        <v>0.001162681224048113</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.004795654779969259</v>
+        <v>0.004696432506523105</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -4073,19 +4073,19 @@
         <v>8882</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3950</v>
+        <v>3964</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16468</v>
+        <v>15948</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001271565727204031</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0005654977235097497</v>
+        <v>0.0005674932246521851</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.002357609109787084</v>
+        <v>0.002283162919525988</v>
       </c>
     </row>
     <row r="25">
@@ -4102,19 +4102,19 @@
         <v>21184</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13017</v>
+        <v>12688</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>34451</v>
+        <v>34721</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006181888456938393</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003798598073510594</v>
+        <v>0.003702676801863724</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.010053404588765</v>
+        <v>0.0101323989171328</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0002814874105467052</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.001410916277789446</v>
+        <v>0.001407866539182848</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>20</v>
@@ -4144,19 +4144,19 @@
         <v>22186</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>12893</v>
+        <v>13877</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35887</v>
+        <v>34482</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003176135226142356</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001845720271436359</v>
+        <v>0.001986682677249159</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.005137724026621743</v>
+        <v>0.004936494158860018</v>
       </c>
     </row>
     <row r="26">
@@ -4173,19 +4173,19 @@
         <v>35760</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23775</v>
+        <v>24594</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50220</v>
+        <v>50905</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01043539576819881</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006937864433898318</v>
+        <v>0.007177121022651343</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01465522938791896</v>
+        <v>0.01485518564109051</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4194,19 +4194,19 @@
         <v>4123</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1125</v>
+        <v>1014</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10952</v>
+        <v>9979</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.001158570717232079</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0003160242119614662</v>
+        <v>0.0002850363455963488</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.003077890316873893</v>
+        <v>0.002804451905835558</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>37</v>
@@ -4215,19 +4215,19 @@
         <v>39882</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>29083</v>
+        <v>27708</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57232</v>
+        <v>55717</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005709641256050036</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00416361295760329</v>
+        <v>0.003966677674610943</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008193427952015638</v>
+        <v>0.007976603190066951</v>
       </c>
     </row>
     <row r="27">
@@ -4244,19 +4244,19 @@
         <v>3360953</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3341639</v>
+        <v>3341850</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3376783</v>
+        <v>3376281</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9807907777480923</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9751544054652108</v>
+        <v>0.975215955738316</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9854101113186752</v>
+        <v>0.9852638338121401</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3293</v>
@@ -4265,19 +4265,19 @@
         <v>3553185</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3545967</v>
+        <v>3547047</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3556316</v>
+        <v>3556312</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9985599418722212</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9965315229906108</v>
+        <v>0.996834959887961</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9994398892859592</v>
+        <v>0.9994388895881863</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6441</v>
@@ -4286,19 +4286,19 @@
         <v>6914138</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6891560</v>
+        <v>6894231</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6930186</v>
+        <v>6931591</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9898426577906035</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9866103325868643</v>
+        <v>0.986992773973325</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9921400716375637</v>
+        <v>0.9923412443711332</v>
       </c>
     </row>
     <row r="28">
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7393</v>
+        <v>6481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.00314000724202026</v>
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01095578533063276</v>
+        <v>0.009604598741661516</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7398</v>
+        <v>7447</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00157228819437447</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.005489340991012033</v>
+        <v>0.005526115371148344</v>
       </c>
     </row>
     <row r="6">
@@ -4740,19 +4740,19 @@
         <v>4488</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1149</v>
+        <v>1126</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10505</v>
+        <v>11272</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.006650486575416593</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001702204919492926</v>
+        <v>0.001668428833229891</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01556732859200288</v>
+        <v>0.01670449595768769</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6673</v>
+        <v>6011</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002871637977718915</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009917619829063015</v>
+        <v>0.008934123002544377</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -4782,19 +4782,19 @@
         <v>6420</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2221</v>
+        <v>2814</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13226</v>
+        <v>14678</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004763811651390413</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001648294993518142</v>
+        <v>0.002087996241886692</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.009814120621950367</v>
+        <v>0.01089189933270237</v>
       </c>
     </row>
     <row r="7">
@@ -4811,19 +4811,19 @@
         <v>668193</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>661214</v>
+        <v>661370</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>672552</v>
+        <v>672661</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9902095061825631</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9798671624664675</v>
+        <v>0.9800973102229904</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9966689937848148</v>
+        <v>0.9968305693047075</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>664</v>
@@ -4832,7 +4832,7 @@
         <v>670907</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>666166</v>
+        <v>666828</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>672839</v>
@@ -4841,7 +4841,7 @@
         <v>0.9971283620222811</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9900823801709363</v>
+        <v>0.9910658769974554</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -4853,19 +4853,19 @@
         <v>1339100</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1331648</v>
+        <v>1330793</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1343574</v>
+        <v>1343551</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9936639001542351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9881343454417056</v>
+        <v>0.9874998540009633</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9969838238830917</v>
+        <v>0.9969667780475566</v>
       </c>
     </row>
     <row r="8">
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7593</v>
+        <v>7495</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002096336938623407</v>
@@ -4969,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.007426793528458596</v>
+        <v>0.007330348054806079</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5044</v>
+        <v>5540</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.001058532699591346</v>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.004836484278341453</v>
+        <v>0.005312014678779308</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -4999,19 +4999,19 @@
         <v>3247</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8723</v>
+        <v>8667</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001572288868348005</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0005074981026846706</v>
+        <v>0.0005067239383224243</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004223707054347403</v>
+        <v>0.00419648163356601</v>
       </c>
     </row>
     <row r="10">
@@ -5028,19 +5028,19 @@
         <v>5667</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2277</v>
+        <v>2045</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13105</v>
+        <v>13000</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005542833998148806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002227377065497877</v>
+        <v>0.002000090240458443</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01281752247365354</v>
+        <v>0.01271528232926157</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -5062,19 +5062,19 @@
         <v>5667</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2036</v>
+        <v>2005</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12487</v>
+        <v>12943</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002743932865025726</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0009857658928746726</v>
+        <v>0.0009708274056085075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.006046112358079307</v>
+        <v>0.006266678557710769</v>
       </c>
     </row>
     <row r="11">
@@ -5091,19 +5091,19 @@
         <v>14793</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7985</v>
+        <v>7570</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26536</v>
+        <v>26140</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01446874665139131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007809661285778846</v>
+        <v>0.007404041156453811</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02595344993444117</v>
+        <v>0.02556607403357973</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -5115,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5677</v>
+        <v>5692</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.001796619959888156</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.005443058855324598</v>
+        <v>0.005457580767962593</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -5133,19 +5133,19 @@
         <v>16667</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9018</v>
+        <v>9111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27619</v>
+        <v>27812</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.008069848584486726</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004366362214408301</v>
+        <v>0.00441112996028241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01337256192587337</v>
+        <v>0.01346617791707334</v>
       </c>
     </row>
     <row r="12">
@@ -5162,19 +5162,19 @@
         <v>999827</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>985672</v>
+        <v>986393</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1008713</v>
+        <v>1008488</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9778920824118364</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9640475267537463</v>
+        <v>0.9647526251387629</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9865825364903772</v>
+        <v>0.9863627880796575</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>974</v>
@@ -5183,19 +5183,19 @@
         <v>1039935</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1034828</v>
+        <v>1034719</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1041985</v>
+        <v>1041983</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9971448473405204</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9922474560468616</v>
+        <v>0.9921436248908959</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9991100665307854</v>
+        <v>0.9991086630632803</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1906</v>
@@ -5204,19 +5204,19 @@
         <v>2039763</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2027847</v>
+        <v>2027468</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2049726</v>
+        <v>2049212</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9876139296821396</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9818447013211464</v>
+        <v>0.9816612035558004</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9924380196792304</v>
+        <v>0.9921894243232532</v>
       </c>
     </row>
     <row r="13">
@@ -5402,19 +5402,19 @@
         <v>7478</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3117</v>
+        <v>3232</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14922</v>
+        <v>14353</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009845168271139971</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004103531754326988</v>
+        <v>0.004255486505375081</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01964558205309339</v>
+        <v>0.01889721488299988</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5436,19 +5436,19 @@
         <v>7478</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3146</v>
+        <v>3212</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15689</v>
+        <v>14719</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004841446464000738</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002036799296306095</v>
+        <v>0.002079606595042443</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0101576502886422</v>
+        <v>0.009529803995140104</v>
       </c>
     </row>
     <row r="17">
@@ -5465,19 +5465,19 @@
         <v>752074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>744630</v>
+        <v>745199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>756435</v>
+        <v>756320</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.99015483172886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9803544179469066</v>
+        <v>0.981102785117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.995896468245673</v>
+        <v>0.9957445134946249</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>736</v>
@@ -5499,19 +5499,19 @@
         <v>1537085</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1528874</v>
+        <v>1529844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1541417</v>
+        <v>1541351</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9951585535359992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9898423497113595</v>
+        <v>0.9904701960048597</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9979632007036939</v>
+        <v>0.9979203934049574</v>
       </c>
     </row>
     <row r="18">
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4639</v>
+        <v>4646</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0008835968566535178</v>
@@ -5628,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.004443978008035762</v>
+        <v>0.00445152474658237</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4894</v>
+        <v>5217</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0004654814702460462</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002470230862490681</v>
+        <v>0.002632906343228495</v>
       </c>
     </row>
     <row r="20">
@@ -5666,19 +5666,19 @@
         <v>5075</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11512</v>
+        <v>11500</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00541293781937492</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001972660702309775</v>
+        <v>0.001962264648681875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01227841177513538</v>
+        <v>0.01226564368516387</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5052</v>
+        <v>4727</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0009017029918167821</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.004840135130139715</v>
+        <v>0.004528642696270059</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -5708,19 +5708,19 @@
         <v>6016</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2168</v>
+        <v>2765</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13351</v>
+        <v>13659</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003036405802149381</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001094339486519171</v>
+        <v>0.001395401792598532</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006738333005372543</v>
+        <v>0.0068939790404821</v>
       </c>
     </row>
     <row r="21">
@@ -5737,19 +5737,19 @@
         <v>7017</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2949</v>
+        <v>3062</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14203</v>
+        <v>13958</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007484039695318977</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003145813786459385</v>
+        <v>0.003265739938174571</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01514844328040155</v>
+        <v>0.01488789570624138</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -5758,19 +5758,19 @@
         <v>10115</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5003</v>
+        <v>5009</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18663</v>
+        <v>18824</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.009690483615278953</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004793099475812745</v>
+        <v>0.004798530982821756</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0178801978251771</v>
+        <v>0.01803445200557305</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>16</v>
@@ -5779,19 +5779,19 @@
         <v>17132</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10339</v>
+        <v>9364</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>28618</v>
+        <v>27474</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008646400960125011</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005218200230701206</v>
+        <v>0.004726051846935795</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01444373704897286</v>
+        <v>0.0138664854270034</v>
       </c>
     </row>
     <row r="22">
@@ -5808,19 +5808,19 @@
         <v>925475</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>917197</v>
+        <v>916646</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>931107</v>
+        <v>930742</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9871030224853061</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.978273941408403</v>
+        <v>0.977686245592732</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9931097800078689</v>
+        <v>0.992720691973665</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>948</v>
@@ -5829,19 +5829,19 @@
         <v>1031801</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1023141</v>
+        <v>1023337</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1037467</v>
+        <v>1037110</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9885242165362508</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9802277267417465</v>
+        <v>0.9804154050196464</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9939527933851907</v>
+        <v>0.9936102427782495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1868</v>
@@ -5850,19 +5850,19 @@
         <v>1957276</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1944542</v>
+        <v>1946179</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1964791</v>
+        <v>1966584</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9878517117674795</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9814247261260705</v>
+        <v>0.9822510880235361</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9916446454387886</v>
+        <v>0.9925494809668267</v>
       </c>
     </row>
     <row r="23">
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6475</v>
+        <v>7475</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0006314492132601611</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.001907526963194628</v>
+        <v>0.002202276420395223</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7463</v>
+        <v>7168</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0005716499782607189</v>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.002105524775653996</v>
+        <v>0.002022176629541527</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -5996,19 +5996,19 @@
         <v>4170</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1094</v>
+        <v>1058</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10626</v>
+        <v>9485</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0006009024214219004</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0001577281592101912</v>
+        <v>0.000152503519799868</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001531387431084885</v>
+        <v>0.001366963599020058</v>
       </c>
     </row>
     <row r="25">
@@ -6025,19 +6025,19 @@
         <v>12861</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7280</v>
+        <v>6885</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21903</v>
+        <v>22181</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003788953006902634</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002144881730107002</v>
+        <v>0.002028247158460389</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.006452912136269218</v>
+        <v>0.006534546236013948</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3786</v>
+        <v>4852</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0002655289868096186</v>
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.001068199229452239</v>
+        <v>0.001368996997113917</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>13</v>
@@ -6067,19 +6067,19 @@
         <v>13802</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7785</v>
+        <v>7442</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23908</v>
+        <v>22065</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001989108910222913</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001121955974818733</v>
+        <v>0.001072434428277242</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.003445485332045474</v>
+        <v>0.003179856722517684</v>
       </c>
     </row>
     <row r="26">
@@ -6096,19 +6096,19 @@
         <v>33776</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23918</v>
+        <v>22353</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49034</v>
+        <v>47352</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009950579434444487</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007046403150402105</v>
+        <v>0.00658536064844448</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01444586954956503</v>
+        <v>0.01395026905707022</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>13</v>
@@ -6117,19 +6117,19 @@
         <v>13921</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7924</v>
+        <v>7581</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23545</v>
+        <v>23448</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003927331547081767</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002235430257635697</v>
+        <v>0.002138692115668889</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.00664256711897303</v>
+        <v>0.006615341974149688</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>43</v>
@@ -6138,19 +6138,19 @@
         <v>47696</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>34715</v>
+        <v>35239</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>64924</v>
+        <v>63072</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006873769180814496</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005003026744728696</v>
+        <v>0.005078494754021155</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009356601310483147</v>
+        <v>0.009089658460034568</v>
       </c>
     </row>
     <row r="27">
@@ -6167,19 +6167,19 @@
         <v>3345570</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3329259</v>
+        <v>3328835</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3356989</v>
+        <v>3358636</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9856290183453927</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9808236086419353</v>
+        <v>0.980698713883927</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9889933172376272</v>
+        <v>0.9894785314204703</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3322</v>
@@ -6188,19 +6188,19 @@
         <v>3527654</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3517720</v>
+        <v>3517667</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3534177</v>
+        <v>3534405</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9952354894878479</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9924328609319597</v>
+        <v>0.992417845582704</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9970758605665394</v>
+        <v>0.9971401232522097</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6509</v>
@@ -6209,19 +6209,19 @@
         <v>6873224</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>6854774</v>
+        <v>6854789</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6888499</v>
+        <v>6887256</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9905362194875407</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9878773575549683</v>
+        <v>0.9878794152594558</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9927376228029611</v>
+        <v>0.9925584047515041</v>
       </c>
     </row>
     <row r="28">
@@ -6556,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2784</v>
+        <v>3131</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001585577810068978</v>
@@ -6565,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.00788397834504828</v>
+        <v>0.00886670659923345</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4621</v>
+        <v>4879</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00761339573985411</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02669667754640713</v>
+        <v>0.02819074785517427</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6595,19 +6595,19 @@
         <v>1878</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5546</v>
+        <v>5762</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003568155727814624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0008429026342246947</v>
+        <v>0.0008732075303799876</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01053905940263472</v>
+        <v>0.01095015107089862</v>
       </c>
     </row>
     <row r="5">
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5705</v>
+        <v>5146</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003987756195013223</v>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01615574831389207</v>
+        <v>0.01457076219858484</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -6661,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5245</v>
+        <v>5248</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.002676164261467805</v>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.009967844752285862</v>
+        <v>0.009972395112716624</v>
       </c>
     </row>
     <row r="6">
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4100</v>
+        <v>4442</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003514024772059942</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01160835527054143</v>
+        <v>0.01257866529233129</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4563</v>
+        <v>4565</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002358245351272831</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008671747043917726</v>
+        <v>0.008674562130256276</v>
       </c>
     </row>
     <row r="7">
@@ -6750,19 +6750,19 @@
         <v>349946</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>345788</v>
+        <v>345595</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>352070</v>
+        <v>352036</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9909126412228578</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9791399313059005</v>
+        <v>0.9785933904943687</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9969278415273227</v>
+        <v>0.9968304867306552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>248</v>
@@ -6771,7 +6771,7 @@
         <v>171764</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>168461</v>
+        <v>168203</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>173082</v>
@@ -6780,7 +6780,7 @@
         <v>0.9923866042601459</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9733033224535927</v>
+        <v>0.9718092521448255</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -6792,19 +6792,19 @@
         <v>521710</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>516647</v>
+        <v>516574</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>524136</v>
+        <v>524257</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9913974346594447</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.981777028261982</v>
+        <v>0.9816371624752236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9960073316578074</v>
+        <v>0.9962366645948554</v>
       </c>
     </row>
     <row r="8">
@@ -6896,19 +6896,19 @@
         <v>7380</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3328</v>
+        <v>3333</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13387</v>
+        <v>13834</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0147391901404269</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.006646394799100693</v>
+        <v>0.006656349564706682</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02673510583152724</v>
+        <v>0.02762844426230791</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -6917,19 +6917,19 @@
         <v>3531</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>843</v>
+        <v>933</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10124</v>
+        <v>10316</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01591957412310877</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.003798688361726893</v>
+        <v>0.004204853995968583</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04564216674897444</v>
+        <v>0.04650553446287679</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>13</v>
@@ -6938,19 +6938,19 @@
         <v>10911</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6266</v>
+        <v>5551</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19571</v>
+        <v>18705</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01510155925540608</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008671543707748605</v>
+        <v>0.0076822844718975</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02708609270978446</v>
+        <v>0.02588841206427181</v>
       </c>
     </row>
     <row r="10">
@@ -6970,7 +6970,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3556</v>
+        <v>2983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001177410819923068</v>
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.007101175836462619</v>
+        <v>0.005957292905927437</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5783</v>
+        <v>5466</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006856196228905737</v>
@@ -7000,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02607126417047231</v>
+        <v>0.02464142500686838</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -7009,19 +7009,19 @@
         <v>2110</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6382</v>
+        <v>5804</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002920755759367547</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0008108546697851988</v>
+        <v>0.0008302233129077782</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.00883317551159195</v>
+        <v>0.008032594453505685</v>
       </c>
     </row>
     <row r="11">
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7329</v>
+        <v>7118</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.002893469306994892</v>
@@ -7050,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01463702505458505</v>
+        <v>0.01421525830809759</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2852</v>
+        <v>3526</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.002902003708251433</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01285872200046855</v>
+        <v>0.01589787931136767</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -7083,16 +7083,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9308</v>
+        <v>7384</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.002896089304788478</v>
+        <v>0.002896089304788477</v>
       </c>
       <c r="V11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01288209258760541</v>
+        <v>0.01021939814510781</v>
       </c>
     </row>
     <row r="12">
@@ -7109,19 +7109,19 @@
         <v>491304</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>483613</v>
+        <v>483725</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>495809</v>
+        <v>496084</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9811899297326553</v>
+        <v>0.9811899297326552</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9658298736655931</v>
+        <v>0.9660529721024207</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9901856355094403</v>
+        <v>0.9907352926958682</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>279</v>
@@ -7130,19 +7130,19 @@
         <v>216117</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>209184</v>
+        <v>209728</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>219454</v>
+        <v>219588</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9743222259397341</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9430658336009778</v>
+        <v>0.9455164898046252</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9893656276363209</v>
+        <v>0.9899683058150256</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>711</v>
@@ -7151,19 +7151,19 @@
         <v>707423</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>698494</v>
+        <v>698265</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>713121</v>
+        <v>713597</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.9790815956804378</v>
+        <v>0.9790815956804377</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9667240284761303</v>
+        <v>0.9664076246341756</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9869677280593466</v>
+        <v>0.9876266435657481</v>
       </c>
     </row>
     <row r="13">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11023</v>
+        <v>12382</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01148832378407242</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05694219022448007</v>
+        <v>0.06396021908937365</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11062</v>
+        <v>10005</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004054774266621284</v>
@@ -7301,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02016890199065244</v>
+        <v>0.01824085615401506</v>
       </c>
     </row>
     <row r="15">
@@ -7318,19 +7318,19 @@
         <v>4282</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1127</v>
+        <v>1153</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10081</v>
+        <v>11816</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01206501462261419</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003174882493731219</v>
+        <v>0.003248866230962407</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02840437433231328</v>
+        <v>0.03329337588137989</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5192</v>
+        <v>4276</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.007330790428346317</v>
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02682160846960572</v>
+        <v>0.02208747612304243</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -7360,19 +7360,19 @@
         <v>5701</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2047</v>
+        <v>2244</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12890</v>
+        <v>11670</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01039408239645713</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003731838431256742</v>
+        <v>0.004090539562370376</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02350074696638799</v>
+        <v>0.02127728596696643</v>
       </c>
     </row>
     <row r="16">
@@ -7389,19 +7389,19 @@
         <v>5325</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1120</v>
+        <v>1775</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13944</v>
+        <v>14427</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01500557486240448</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003155162733232482</v>
+        <v>0.005001816358226157</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03928873673844617</v>
+        <v>0.04065054113155052</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3096</v>
+        <v>3206</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003559667864819606</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01599157288861259</v>
+        <v>0.0165603234253509</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -7431,19 +7431,19 @@
         <v>6015</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1801</v>
+        <v>2139</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15531</v>
+        <v>16374</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01096577149123802</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003283883514572053</v>
+        <v>0.003898895763111557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02831674101878916</v>
+        <v>0.02985270394712075</v>
       </c>
     </row>
     <row r="17">
@@ -7460,19 +7460,19 @@
         <v>345294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>335787</v>
+        <v>333851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>350669</v>
+        <v>350468</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9729294105149813</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9461438981864363</v>
+        <v>0.9406889280139876</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9880746703584745</v>
+        <v>0.9875097028315134</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>236</v>
@@ -7481,19 +7481,19 @@
         <v>189256</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>181372</v>
+        <v>179826</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192251</v>
+        <v>192212</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9776212179227616</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9368968598606734</v>
+        <v>0.9289083710454485</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9930912977072285</v>
+        <v>0.9928895549012368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>527</v>
@@ -7502,19 +7502,19 @@
         <v>534549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>523939</v>
+        <v>523214</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>541529</v>
+        <v>541080</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9745853718456838</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9552402861618904</v>
+        <v>0.9539185320045794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9873098484751821</v>
+        <v>0.9864922009234024</v>
       </c>
     </row>
     <row r="18">
@@ -7606,19 +7606,19 @@
         <v>4750</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1730</v>
+        <v>1629</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10474</v>
+        <v>9470</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01022462250874851</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0037240491096476</v>
+        <v>0.003506331349259255</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02254692688621406</v>
+        <v>0.02038581999285538</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -7627,19 +7627,19 @@
         <v>4545</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13687</v>
+        <v>13376</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01476382919389188</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004327614794420205</v>
+        <v>0.004373510680587813</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04446180164334788</v>
+        <v>0.04345215340726684</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -7648,19 +7648,19 @@
         <v>9295</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4550</v>
+        <v>4489</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17218</v>
+        <v>18162</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0120338194631679</v>
+        <v>0.01203381946316789</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005891099161452237</v>
+        <v>0.005812141433677793</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02229262825147204</v>
+        <v>0.02351445882898642</v>
       </c>
     </row>
     <row r="20">
@@ -7677,19 +7677,19 @@
         <v>5114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1852</v>
+        <v>1847</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11811</v>
+        <v>11028</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01100995260167819</v>
+        <v>0.0110099526016782</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003987204450620258</v>
+        <v>0.003975547184507104</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02542593228170381</v>
+        <v>0.02374073061290639</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -7711,19 +7711,19 @@
         <v>5114</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1827</v>
+        <v>1871</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12060</v>
+        <v>10588</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006621702826568241</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002365013691123418</v>
+        <v>0.00242263950351219</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01561402998076091</v>
+        <v>0.01370874776284035</v>
       </c>
     </row>
     <row r="21">
@@ -7740,19 +7740,19 @@
         <v>9112</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4245</v>
+        <v>3741</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17503</v>
+        <v>17070</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01961619717757596</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009138960079598985</v>
+        <v>0.00805262508136711</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03767903701675002</v>
+        <v>0.03674811765620906</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3788</v>
+        <v>3828</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.002456143105625488</v>
@@ -7773,7 +7773,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01230634425310199</v>
+        <v>0.01243355782057237</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>9</v>
@@ -7782,19 +7782,19 @@
         <v>9868</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5023</v>
+        <v>4927</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>20882</v>
+        <v>19226</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01277669421635219</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.006503134846739762</v>
+        <v>0.006379196655824988</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02703640622213215</v>
+        <v>0.02489247165149337</v>
       </c>
     </row>
     <row r="22">
@@ -7811,19 +7811,19 @@
         <v>445547</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>435558</v>
+        <v>435571</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>452962</v>
+        <v>453382</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9591492277119975</v>
+        <v>0.9591492277119974</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9376453241612738</v>
+        <v>0.9376746579239075</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9751115808858035</v>
+        <v>0.9760168513161307</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>411</v>
@@ -7832,19 +7832,19 @@
         <v>302542</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>293976</v>
+        <v>292970</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>306082</v>
+        <v>305953</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9827800277004827</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9549530024519249</v>
+        <v>0.9516877981293992</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9942785555943218</v>
+        <v>0.9938599273729101</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>875</v>
@@ -7853,19 +7853,19 @@
         <v>748089</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>734758</v>
+        <v>736949</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>755602</v>
+        <v>756942</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9685677834939117</v>
+        <v>0.9685677834939116</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9513076114874224</v>
+        <v>0.9541441846740443</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9782953352294004</v>
+        <v>0.980029733511528</v>
       </c>
     </row>
     <row r="23">
@@ -7957,19 +7957,19 @@
         <v>12690</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7274</v>
+        <v>7252</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20718</v>
+        <v>20499</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.007583675239003757</v>
+        <v>0.007583675239003758</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004347051548174151</v>
+        <v>0.004333775326888692</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0123813388976235</v>
+        <v>0.01225075579074181</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -7978,19 +7978,19 @@
         <v>11618</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5606</v>
+        <v>6112</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22222</v>
+        <v>22998</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01296164085076162</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.006254257330474315</v>
+        <v>0.006819149165463719</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02479231465962118</v>
+        <v>0.02565818854489864</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -7999,19 +7999,19 @@
         <v>24308</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16501</v>
+        <v>15613</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>36557</v>
+        <v>35794</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.00945959198876954</v>
+        <v>0.009459591988769542</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.006421488823637014</v>
+        <v>0.006076113459228827</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01422651616738769</v>
+        <v>0.01392972000380284</v>
       </c>
     </row>
     <row r="25">
@@ -8028,19 +8028,19 @@
         <v>11394</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6357</v>
+        <v>6043</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19256</v>
+        <v>19655</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.006809359191291251</v>
+        <v>0.006809359191291252</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003798915966969741</v>
+        <v>0.003611610868838536</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01150807181219634</v>
+        <v>0.01174615749680129</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -8049,19 +8049,19 @@
         <v>2940</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7411</v>
+        <v>7252</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.003280000103897582</v>
+        <v>0.003280000103897581</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0007973628380861472</v>
+        <v>0.000804430991265095</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.008267734890592541</v>
+        <v>0.008091084793568576</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -8070,19 +8070,19 @@
         <v>14334</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8524</v>
+        <v>8386</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23941</v>
+        <v>24066</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.005578264702047061</v>
+        <v>0.005578264702047062</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003317062020272469</v>
+        <v>0.003263322010862855</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.009317021844267737</v>
+        <v>0.009365646187372989</v>
       </c>
     </row>
     <row r="26">
@@ -8099,19 +8099,19 @@
         <v>17127</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10009</v>
+        <v>9336</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30996</v>
+        <v>27965</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01023574298234086</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005981819954717531</v>
+        <v>0.005579110122777054</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01852412357664669</v>
+        <v>0.01671272722767638</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -8120,19 +8120,19 @@
         <v>2089</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5499</v>
+        <v>5693</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.002330534012467659</v>
+        <v>0.002330534012467658</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0007234267261411294</v>
+        <v>0.000718526151848021</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.006135570287556634</v>
+        <v>0.006351891629259043</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -8141,19 +8141,19 @@
         <v>19216</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11912</v>
+        <v>11164</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32883</v>
+        <v>31358</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007478285053535583</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004635571463510941</v>
+        <v>0.004344626986571046</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01279678314620767</v>
+        <v>0.01220325970742568</v>
       </c>
     </row>
     <row r="27">
@@ -8170,19 +8170,19 @@
         <v>1632092</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1617434</v>
+        <v>1617282</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1644176</v>
+        <v>1643754</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.975371222587364</v>
+        <v>0.9753712225873641</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9666116923703619</v>
+        <v>0.966520892527919</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9825931246098332</v>
+        <v>0.9823409114690701</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1174</v>
@@ -8191,19 +8191,19 @@
         <v>879679</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>868260</v>
+        <v>869651</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>886749</v>
+        <v>886764</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.981427825032873</v>
+        <v>0.9814278250328731</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9686876675327992</v>
+        <v>0.9702393564861163</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9893149816012032</v>
+        <v>0.9893323527754954</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2712</v>
@@ -8212,19 +8212,19 @@
         <v>2511770</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2494053</v>
+        <v>2494224</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>2525098</v>
+        <v>2526113</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.9774838582556477</v>
+        <v>0.9774838582556478</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9705892443811093</v>
+        <v>0.9706556038814702</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9826706618018271</v>
+        <v>0.9830657682657574</v>
       </c>
     </row>
     <row r="28">
